--- a/testcases/tempelate.xlsx
+++ b/testcases/tempelate.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukhsh\Dropbox\Oatsv1\testcases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="busbar" sheetId="1" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" r:id="rId4"/>
-    <sheet name="wind" sheetId="5" r:id="rId5"/>
-    <sheet name="shunt" sheetId="6" r:id="rId6"/>
-    <sheet name="zone" sheetId="7" r:id="rId7"/>
-    <sheet name="generator" sheetId="8" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" r:id="rId9"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="demand" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="branch" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="wind" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="shunt" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="zone" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="generator" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="zonalNTC" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="timeseries" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -194,8 +192,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -204,7 +205,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -221,407 +237,202 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FFC00000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFD0CECE"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF7030A0"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFDD4814"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF002060"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF1F4E79"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.499984740745262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF1F4E79"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,28 +465,88 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFDD4814"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFCCCC"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFFF0000"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -696,28 +567,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFFFC000"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,28 +636,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FF92D050"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,28 +714,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FF00B0F0"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -891,28 +780,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FF0070C0"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -930,28 +825,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FF002060"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -966,28 +867,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FF7030A0"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,34 +960,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFC00000"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/testcases/tempelate.xlsx
+++ b/testcases/tempelate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -483,7 +483,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -652,18 +652,18 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,39 +677,42 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -883,18 +886,18 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,57 +908,60 @@
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>52</v>
       </c>
     </row>

--- a/testcases/tempelate.xlsx
+++ b/testcases/tempelate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -652,10 +652,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -686,33 +686,36 @@
         <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -888,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
